--- a/medicine/Psychotrope/Terrine_de_foie_gras_au_sauternes/Terrine_de_foie_gras_au_sauternes.xlsx
+++ b/medicine/Psychotrope/Terrine_de_foie_gras_au_sauternes/Terrine_de_foie_gras_au_sauternes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La terrine de foie gras au sauternes est un mets gastronomique de la cuisine française. Cette préparation est originaire de l'Aquitaine.
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La préparation de base de ce mets nécessite du foie gras cru, du sauternes, du poivre blanc et du sel[1]. Elle peut être relevée d'épices comme la noix muscade[2], le paprika ou les quatre épices[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La préparation de base de ce mets nécessite du foie gras cru, du sauternes, du poivre blanc et du sel. Elle peut être relevée d'épices comme la noix muscade, le paprika ou les quatre épices.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lobes de foie gras salés et poivrés sont placés dans une terrine, arrosés de sauternes et tassés. La terrine est ensuite mise au réfrigérateur pour que la préparation marine pendant une demi-journée. La terrine est alors mise à cuire dans un four au bain-marie puis laissée à refroidir doucement. Lorsque le foie est froid et tassé, il peut être recouvert d'une couche de graisse d'oie ou de canard[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lobes de foie gras salés et poivrés sont placés dans une terrine, arrosés de sauternes et tassés. La terrine est ensuite mise au réfrigérateur pour que la préparation marine pendant une demi-journée. La terrine est alors mise à cuire dans un four au bain-marie puis laissée à refroidir doucement. Lorsque le foie est froid et tassé, il peut être recouvert d'une couche de graisse d'oie ou de canard.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est de tradition d'accompagner cette terrine du même sauternes qui a servi à la préparer[1],[2],[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de tradition d'accompagner cette terrine du même sauternes qui a servi à la préparer. 
 </t>
         </is>
       </c>
